--- a/Assumptions, Rules and Nomenclature.xlsx
+++ b/Assumptions, Rules and Nomenclature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f8f3b5ac755099a/Documents/Year 4/CPE440/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E515B080-2FD0-41F9-8FBF-AA15A227D4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E515B080-2FD0-41F9-8FBF-AA15A227D4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6AAE89-568A-41B1-9D17-4387B085A1A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47231D7A-69AF-4B80-B915-C2DF3DC0B273}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>All streams leaving and entering the P&amp;ID are prefixed prod or stream</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>Reactants inputted as a dict, key = inlet composition sensor name, value = 'Reactant' or None if it is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must have 4 streams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distillation column </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not support multiple of the same sensor on the same stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream tags are feed, reflux, reboil, top, bot, prod </t>
+  </si>
+  <si>
+    <t>Don't need to have reflux and reboil systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can have any number of product streams but only one feed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod streams are in the fractional systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have to input a stage number for each sensor and stream. This does not have to be actual number, just an indication of location. Counting starts at the top from 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream location, stream tags, and sensor locations stored as dict, key = stream, value = stage or tag </t>
   </si>
 </sst>
 </file>
@@ -544,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D49801-E624-41CF-940C-C2DCB8469281}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="12.44140625" style="3" customWidth="1"/>
@@ -575,7 +602,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -586,7 +613,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -595,7 +622,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -604,7 +631,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -613,31 +640,31 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -645,19 +672,19 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -665,13 +692,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -679,7 +706,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -687,25 +714,25 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -713,39 +740,83 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
